--- a/medicine/Enfance/Thierry_Serfaty/Thierry_Serfaty.xlsx
+++ b/medicine/Enfance/Thierry_Serfaty/Thierry_Serfaty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thierry Serfaty, né le 7 décembre 1967 à Strasbourg, est un médecin généraliste et écrivain français auteur de polars et de romans pour la jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thierry Serfaty effectue des études de médecine. Il ouvre son cabinet et travaille pour l'association Médecins du monde[1].
-Son premier roman, Le Sang des Sirènes, est un thriller publié par les éditions Albin Michel[1]. Il obtient le prix Polar 2000 à Cognac[2]. En 2011, il publie Demain est une autre vie, un thriller dont le personnage principal est un chirurgien[3].
-Il a également créé la série télévisée Le Cocon, débuts à l'hôpital[4].
-Thierry Serfaty écrit des romans pour la jeunesse sous le pseudonyme d'Eli Anderson[5],[6]. Sa série Oscar Pill compte cinq tomes, parus entre 2009 et 2012, et vendus à 250 000 exemplaires. Ils sont réédités au format poche en 2013[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thierry Serfaty effectue des études de médecine. Il ouvre son cabinet et travaille pour l'association Médecins du monde.
+Son premier roman, Le Sang des Sirènes, est un thriller publié par les éditions Albin Michel. Il obtient le prix Polar 2000 à Cognac. En 2011, il publie Demain est une autre vie, un thriller dont le personnage principal est un chirurgien.
+Il a également créé la série télévisée Le Cocon, débuts à l'hôpital.
+Thierry Serfaty écrit des romans pour la jeunesse sous le pseudonyme d'Eli Anderson,. Sa série Oscar Pill compte cinq tomes, parus entre 2009 et 2012, et vendus à 250 000 exemplaires. Ils sont réédités au format poche en 2013.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son frère est le chef d'entreprise Dan Serfaty[réf. souhaitée].
 </t>
@@ -578,32 +594,173 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Thrillers
-Le Sang des sirènes, Albin Michel, 2000  (ISBN 2-226-11401-7)
+          <t>Thrillers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Sang des sirènes, Albin Michel, 2000  (ISBN 2-226-11401-7)
 Le Cinquième Patient, Albin Michel, 2001  (ISBN 2-226-12576-0)
 Le Gène de la révolte, Albin Michel, 2004  (ISBN 2-226-15384-5)
 La Nuit interdite, Albin Michel, 2006  (ISBN 2-226-16823-0)
 Peur, Michel Lafon, 2007  (ISBN 2-749-90720-9)
 Agônia, Michel Lafon, 2008  (ISBN 978-2-749-90803-8)
-Demain est une autre vie, Albin Michel, 2011  (ISBN 978-2-226-22143-8)
-Série Oscar Pill
-La Révélation des Médicus, Albin Michel Jeunesse, 2009, 576 p.  (ISBN 978-2-226-19357-5)
+Demain est une autre vie, Albin Michel, 2011  (ISBN 978-2-226-22143-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thierry_Serfaty</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Serfaty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Oscar Pill</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Révélation des Médicus, Albin Michel Jeunesse, 2009, 576 p.  (ISBN 978-2-226-19357-5)
 Les Deux Royaumes, Albin Michel Jeunesse, 2010, 624 p.  (ISBN 978-2-226-20939-9)
 Le Secret des Éternels, Albin Michel Jeunesse, 2010, 600 p.  (ISBN 978-2-226-20940-5)
 L'Allié des ténèbres, Albin Michel Jeunesse, 2011, 500 p.  (ISBN 978-2-226-23100-0)
-Cérébra, l'ultime voyage, Albin Michel Jeunesse, 2012, 587 p.  (ISBN 978-2-226-24272-3)
-Série Oscar le Médicus
-Le Pendentif magique, Albin Michel Jeunesse, 2014  (ISBN 978-2-226-25776-5)
+Cérébra, l'ultime voyage, Albin Michel Jeunesse, 2012, 587 p.  (ISBN 978-2-226-24272-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thierry_Serfaty</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Serfaty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Oscar le Médicus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Pendentif magique, Albin Michel Jeunesse, 2014  (ISBN 978-2-226-25776-5)
 Le Mystère de la cape émeraude, Albin Michel Jeunesse, 2014  (ISBN 978-2-226-25777-2)
 Le Grimoire qui sait tout, Albin Michel Jeunesse, 2015  (ISBN 978-2-226-25875-5)
 L'Ordre secret des Médicus, Albin Michel Jeunesse, 2015  (ISBN 978-2-226-25876-2)
 Les Cavaliers du ciel, Albin Michel Jeunesse, 2015  (ISBN 978-2-226-25876-2)
 La Vengeance du prince noir, Albin Michel Jeunesse, 2016  (ISBN 978-2-226-32473-3)
-La Salle des gongs, Albin Michel Jeunesse, 2016  (ISBN 978-2-226-32541-9)
-Romans jeunesse indépendants
-Mila Hunt, Albin Michel Jeunesse, 2019  (ISBN 978-2-226-25508-2)
-Collaboration
-Weepers Circus, N'importe où, hors du monde (2011). Il s'agit d'un livre-disque dans lequel participe une quarantaine d'invités aux titres d'auteurs ou d'interprètes: Thierry Serfaty y signe un texte inédit (non mis en musique) consacré à sa propre interprétation de ce titre énigmatique de « N'importe où, hors du monde ».</t>
+La Salle des gongs, Albin Michel Jeunesse, 2016  (ISBN 978-2-226-32541-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thierry_Serfaty</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Serfaty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans jeunesse indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mila Hunt, Albin Michel Jeunesse, 2019  (ISBN 978-2-226-25508-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thierry_Serfaty</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Serfaty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Collaboration</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Weepers Circus, N'importe où, hors du monde (2011). Il s'agit d'un livre-disque dans lequel participe une quarantaine d'invités aux titres d'auteurs ou d'interprètes: Thierry Serfaty y signe un texte inédit (non mis en musique) consacré à sa propre interprétation de ce titre énigmatique de « N'importe où, hors du monde ».</t>
         </is>
       </c>
     </row>
